--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_20_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_20_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>80058.07895257986</v>
+        <v>77357.54148375487</v>
       </c>
     </row>
     <row r="7">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>92.7267998291469</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="G2" t="n">
         <v>239.8079481415045</v>
       </c>
       <c r="H2" t="n">
-        <v>49.6939078531854</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>118.4960408938904</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>1.13686837721616e-13</v>
       </c>
       <c r="S2" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>239.8079481415045</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>239.8079481415045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -747,16 +747,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0669836643703</v>
+        <v>83.55136581708804</v>
       </c>
       <c r="H3" t="n">
-        <v>99.90681807664346</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>45.4458084395867</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,19 +786,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T3" t="n">
         <v>195.0194028815133</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>121.7836809822143</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>39.14659130169439</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S4" t="n">
-        <v>205.3658819001187</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>184.1452854184824</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,13 +902,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>320.917032257373</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.32572783638012</v>
+        <v>410.637578678454</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>141.1814615316175</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1074921335361</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>205.0803005867742</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>25.10884733049461</v>
+        <v>58.32522356458545</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>135.7506765600919</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.85195735900767</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55541033175694</v>
+        <v>34.55541033175702</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1.261993899358956</v>
+        <v>1.261993899359112</v>
       </c>
       <c r="S6" t="n">
-        <v>142.096855515207</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.7444632813737</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.8365899360328</v>
@@ -1038,7 +1038,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1063,10 +1063,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6555953037877</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>117.2496683371439</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>73.3145605820494</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>202.8826716100719</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>186.9553186323625</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>85.67291306389048</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>243.0001229828532</v>
       </c>
       <c r="V10" t="n">
-        <v>73.63286922496306</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>343.1355995113136</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1379,16 +1379,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
         <v>289.9775033393747</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184543</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615203</v>
+        <v>98.88510599615206</v>
       </c>
       <c r="T11" t="n">
         <v>201.9388203544491</v>
@@ -1427,10 +1427,10 @@
         <v>250.959002459687</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>226.9297960857287</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1467,7 +1467,7 @@
         <v>87.2605838181255</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530784</v>
+        <v>10.48847705530785</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>145.0487222641636</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.8230033569236</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>90.2535238992737</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905233</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920368</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>218.682419239904</v>
@@ -1585,7 +1585,7 @@
         <v>286.2007761200435</v>
       </c>
       <c r="V13" t="n">
-        <v>4.292403366980202</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1771,13 +1771,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1813,7 +1813,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,13 +1822,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>45.31583743121394</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>138.7157037776618</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>154.5058101250901</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>80.10107535865899</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187864</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2132,13 +2132,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576151</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701356</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>100.9410961977586</v>
       </c>
       <c r="F22" t="n">
-        <v>6.600826611594925</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695436</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>31.26260713376516</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>118.4437570891972</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2713,16 +2713,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766848</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.52295781333198</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,13 +2770,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2846,7 +2846,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881278</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2950,10 +2950,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>161.3373146097476</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>43.5570749471856</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722609</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3187,13 +3187,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766857</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>103.5531674807555</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.06560892428129</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>213.7394996880298</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3661,7 +3661,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>41.74133133758728</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3673,10 +3673,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>133.8107367464754</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>114.512007517665</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>83.06560892428175</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695562</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4040,7 +4040,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4135,7 +4135,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4147,7 +4147,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>162.4016674345629</v>
+        <v>160.6789846282032</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>318.5562537668773</v>
+        <v>865.5683583951627</v>
       </c>
       <c r="C2" t="n">
-        <v>318.5562537668773</v>
+        <v>623.3381077471784</v>
       </c>
       <c r="D2" t="n">
-        <v>318.5562537668773</v>
+        <v>623.3381077471784</v>
       </c>
       <c r="E2" t="n">
-        <v>318.5562537668773</v>
+        <v>623.3381077471784</v>
       </c>
       <c r="F2" t="n">
-        <v>311.6107530176738</v>
+        <v>381.107857099194</v>
       </c>
       <c r="G2" t="n">
-        <v>69.38050236968945</v>
+        <v>138.8776064512096</v>
       </c>
       <c r="H2" t="n">
-        <v>19.18463585132036</v>
+        <v>138.8776064512096</v>
       </c>
       <c r="I2" t="n">
         <v>19.18463585132036</v>
       </c>
       <c r="J2" t="n">
-        <v>40.41888584470354</v>
+        <v>40.41888584470348</v>
       </c>
       <c r="K2" t="n">
         <v>122.9820404192956</v>
@@ -4340,40 +4340,40 @@
         <v>449.0101090859557</v>
       </c>
       <c r="N2" t="n">
-        <v>643.3443219779376</v>
+        <v>643.3443219779377</v>
       </c>
       <c r="O2" t="n">
-        <v>813.5133472948969</v>
+        <v>813.5133472948971</v>
       </c>
       <c r="P2" t="n">
-        <v>924.247672544423</v>
+        <v>924.2476725444232</v>
       </c>
       <c r="Q2" t="n">
-        <v>959.2317925660179</v>
+        <v>959.231792566018</v>
       </c>
       <c r="R2" t="n">
-        <v>959.2317925660179</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="S2" t="n">
-        <v>803.016755062846</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="T2" t="n">
-        <v>803.016755062846</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="U2" t="n">
-        <v>560.7865044148616</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="V2" t="n">
-        <v>560.7865044148616</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="W2" t="n">
-        <v>560.7865044148616</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="X2" t="n">
-        <v>560.7865044148616</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="Y2" t="n">
-        <v>318.5562537668773</v>
+        <v>959.2317925660182</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>404.0765693204089</v>
+        <v>149.4848118681635</v>
       </c>
       <c r="C3" t="n">
-        <v>404.0765693204089</v>
+        <v>149.4848118681635</v>
       </c>
       <c r="D3" t="n">
-        <v>404.0765693204089</v>
+        <v>149.4848118681635</v>
       </c>
       <c r="E3" t="n">
-        <v>404.0765693204089</v>
+        <v>149.4848118681635</v>
       </c>
       <c r="F3" t="n">
-        <v>257.5420113472939</v>
+        <v>149.4848118681635</v>
       </c>
       <c r="G3" t="n">
-        <v>120.1006137065158</v>
+        <v>65.0894928610039</v>
       </c>
       <c r="H3" t="n">
-        <v>19.18463585132036</v>
+        <v>65.0894928610039</v>
       </c>
       <c r="I3" t="n">
         <v>19.18463585132036</v>
@@ -4410,49 +4410,49 @@
         <v>19.18463585132036</v>
       </c>
       <c r="K3" t="n">
-        <v>86.79245551467721</v>
+        <v>86.79245551467723</v>
       </c>
       <c r="L3" t="n">
-        <v>224.022053530371</v>
+        <v>251.3857061532882</v>
       </c>
       <c r="M3" t="n">
-        <v>403.5193898849756</v>
+        <v>430.8830425078928</v>
       </c>
       <c r="N3" t="n">
-        <v>602.17613153764</v>
+        <v>668.2929111679823</v>
       </c>
       <c r="O3" t="n">
-        <v>761.6884442064004</v>
+        <v>827.8052238367427</v>
       </c>
       <c r="P3" t="n">
-        <v>870.378071733699</v>
+        <v>936.4948513640413</v>
       </c>
       <c r="Q3" t="n">
-        <v>959.2317925660179</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="R3" t="n">
-        <v>959.2317925660179</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="S3" t="n">
-        <v>959.2317925660179</v>
+        <v>809.7650034286529</v>
       </c>
       <c r="T3" t="n">
-        <v>762.2424967261055</v>
+        <v>612.7757075887405</v>
       </c>
       <c r="U3" t="n">
-        <v>762.2424967261055</v>
+        <v>384.6369200999063</v>
       </c>
       <c r="V3" t="n">
-        <v>527.0903884943627</v>
+        <v>149.4848118681635</v>
       </c>
       <c r="W3" t="n">
-        <v>404.0765693204089</v>
+        <v>149.4848118681635</v>
       </c>
       <c r="X3" t="n">
-        <v>404.0765693204089</v>
+        <v>149.4848118681635</v>
       </c>
       <c r="Y3" t="n">
-        <v>404.0765693204089</v>
+        <v>149.4848118681635</v>
       </c>
     </row>
     <row r="4">
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>323.555918363891</v>
+        <v>360.8943839498014</v>
       </c>
       <c r="C4" t="n">
-        <v>323.555918363891</v>
+        <v>360.8943839498014</v>
       </c>
       <c r="D4" t="n">
-        <v>173.4392789515553</v>
+        <v>321.3523725339484</v>
       </c>
       <c r="E4" t="n">
         <v>173.4392789515553</v>
@@ -4495,43 +4495,43 @@
         <v>305.0655603477483</v>
       </c>
       <c r="M4" t="n">
-        <v>453.8659557426993</v>
+        <v>510.3351610669861</v>
       </c>
       <c r="N4" t="n">
-        <v>659.6893205788035</v>
+        <v>716.1585259030903</v>
       </c>
       <c r="O4" t="n">
-        <v>833.7842159674024</v>
+        <v>890.2534212916892</v>
       </c>
       <c r="P4" t="n">
-        <v>959.2317925660179</v>
+        <v>955.8134731456583</v>
       </c>
       <c r="Q4" t="n">
-        <v>959.2317925660179</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="R4" t="n">
-        <v>959.2317925660179</v>
+        <v>828.7538312854208</v>
       </c>
       <c r="S4" t="n">
-        <v>751.7915078184233</v>
+        <v>828.7538312854208</v>
       </c>
       <c r="T4" t="n">
-        <v>565.7861690118754</v>
+        <v>603.1246345977858</v>
       </c>
       <c r="U4" t="n">
-        <v>565.7861690118754</v>
+        <v>603.1246345977858</v>
       </c>
       <c r="V4" t="n">
-        <v>565.7861690118754</v>
+        <v>603.1246345977858</v>
       </c>
       <c r="W4" t="n">
-        <v>323.555918363891</v>
+        <v>360.8943839498014</v>
       </c>
       <c r="X4" t="n">
-        <v>323.555918363891</v>
+        <v>360.8943839498014</v>
       </c>
       <c r="Y4" t="n">
-        <v>323.555918363891</v>
+        <v>360.8943839498014</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>52.24673718123759</v>
+        <v>778.7405584938101</v>
       </c>
       <c r="C5" t="n">
-        <v>52.24673718123759</v>
+        <v>778.7405584938101</v>
       </c>
       <c r="D5" t="n">
-        <v>52.24673718123759</v>
+        <v>778.7405584938101</v>
       </c>
       <c r="E5" t="n">
-        <v>52.24673718123759</v>
+        <v>454.5819400520192</v>
       </c>
       <c r="F5" t="n">
-        <v>45.30123643203412</v>
+        <v>447.6364393028157</v>
       </c>
       <c r="G5" t="n">
-        <v>32.85100629427642</v>
+        <v>32.85100629427632</v>
       </c>
       <c r="H5" t="n">
-        <v>32.85100629427642</v>
+        <v>32.85100629427632</v>
       </c>
       <c r="I5" t="n">
-        <v>32.85100629427642</v>
+        <v>32.85100629427632</v>
       </c>
       <c r="J5" t="n">
-        <v>103.7588362828606</v>
+        <v>103.75883628286</v>
       </c>
       <c r="K5" t="n">
-        <v>260.7698107230128</v>
+        <v>260.7698107230116</v>
       </c>
       <c r="L5" t="n">
-        <v>492.4575702340424</v>
+        <v>492.4575702340406</v>
       </c>
       <c r="M5" t="n">
-        <v>781.9242815861716</v>
+        <v>781.9242815861689</v>
       </c>
       <c r="N5" t="n">
-        <v>1080.688675334941</v>
+        <v>1080.688675334937</v>
       </c>
       <c r="O5" t="n">
-        <v>1349.468159143677</v>
+        <v>1349.468159143673</v>
       </c>
       <c r="P5" t="n">
-        <v>1544.364229282346</v>
+        <v>1544.364229282342</v>
       </c>
       <c r="Q5" t="n">
-        <v>1642.550314713821</v>
+        <v>1642.550314713816</v>
       </c>
       <c r="R5" t="n">
-        <v>1642.550314713821</v>
+        <v>1642.550314713816</v>
       </c>
       <c r="S5" t="n">
-        <v>1642.550314713821</v>
+        <v>1499.942777813192</v>
       </c>
       <c r="T5" t="n">
-        <v>1642.550314713821</v>
+        <v>1499.942777813192</v>
       </c>
       <c r="U5" t="n">
-        <v>1388.906383265805</v>
+        <v>1499.942777813192</v>
       </c>
       <c r="V5" t="n">
-        <v>1388.906383265805</v>
+        <v>1168.879890469622</v>
       </c>
       <c r="W5" t="n">
-        <v>1036.137727995691</v>
+        <v>1168.879890469622</v>
       </c>
       <c r="X5" t="n">
-        <v>828.9859092211711</v>
+        <v>1168.879890469622</v>
       </c>
       <c r="Y5" t="n">
-        <v>438.8465772453594</v>
+        <v>778.7405584938101</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>376.774386714203</v>
+        <v>508.1565418587469</v>
       </c>
       <c r="C6" t="n">
-        <v>351.4119146631983</v>
+        <v>449.2421746217919</v>
       </c>
       <c r="D6" t="n">
-        <v>351.4119146631983</v>
+        <v>449.2421746217919</v>
       </c>
       <c r="E6" t="n">
-        <v>351.4119146631983</v>
+        <v>449.2421746217919</v>
       </c>
       <c r="F6" t="n">
-        <v>204.8773566900833</v>
+        <v>302.7076166486769</v>
       </c>
       <c r="G6" t="n">
-        <v>67.75546117483898</v>
+        <v>165.5857211334326</v>
       </c>
       <c r="H6" t="n">
         <v>67.75546117483898</v>
       </c>
       <c r="I6" t="n">
-        <v>32.85100629427642</v>
+        <v>32.85100629427632</v>
       </c>
       <c r="J6" t="n">
-        <v>56.26537711121862</v>
+        <v>56.26537711121827</v>
       </c>
       <c r="K6" t="n">
-        <v>174.439090948411</v>
+        <v>174.4390909484102</v>
       </c>
       <c r="L6" t="n">
-        <v>379.660773899752</v>
+        <v>379.6607738997507</v>
       </c>
       <c r="M6" t="n">
-        <v>638.5016663947938</v>
+        <v>638.5016663947919</v>
       </c>
       <c r="N6" t="n">
-        <v>939.2923653451887</v>
+        <v>918.6019520248104</v>
       </c>
       <c r="O6" t="n">
-        <v>1173.3096094654</v>
+        <v>1173.309609465396</v>
       </c>
       <c r="P6" t="n">
-        <v>1579.84081235707</v>
+        <v>1579.840812357066</v>
       </c>
       <c r="Q6" t="n">
-        <v>1642.550314713821</v>
+        <v>1642.550314713816</v>
       </c>
       <c r="R6" t="n">
-        <v>1641.275573401337</v>
+        <v>1641.275573401332</v>
       </c>
       <c r="S6" t="n">
-        <v>1497.743396113249</v>
+        <v>1641.275573401332</v>
       </c>
       <c r="T6" t="n">
-        <v>1302.041918051256</v>
+        <v>1641.275573401332</v>
       </c>
       <c r="U6" t="n">
-        <v>1073.924150439101</v>
+        <v>1413.157805789178</v>
       </c>
       <c r="V6" t="n">
-        <v>838.7720422073585</v>
+        <v>1178.005697557435</v>
       </c>
       <c r="W6" t="n">
-        <v>584.5346854791569</v>
+        <v>923.7683408292337</v>
       </c>
       <c r="X6" t="n">
-        <v>584.5346854791569</v>
+        <v>715.9168406237009</v>
       </c>
       <c r="Y6" t="n">
-        <v>376.774386714203</v>
+        <v>508.1565418587469</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>668.1559073722533</v>
+        <v>646.7068697148225</v>
       </c>
       <c r="C7" t="n">
-        <v>499.2197244443464</v>
+        <v>477.7706867869156</v>
       </c>
       <c r="D7" t="n">
-        <v>349.1030850320107</v>
+        <v>327.6540473745798</v>
       </c>
       <c r="E7" t="n">
-        <v>201.1899914496176</v>
+        <v>179.7409537921867</v>
       </c>
       <c r="F7" t="n">
-        <v>201.1899914496176</v>
+        <v>32.85100629427632</v>
       </c>
       <c r="G7" t="n">
-        <v>32.85100629427642</v>
+        <v>32.85100629427632</v>
       </c>
       <c r="H7" t="n">
-        <v>32.85100629427642</v>
+        <v>32.85100629427632</v>
       </c>
       <c r="I7" t="n">
-        <v>32.85100629427642</v>
+        <v>32.85100629427632</v>
       </c>
       <c r="J7" t="n">
-        <v>33.89295411735844</v>
+        <v>33.89295411735822</v>
       </c>
       <c r="K7" t="n">
-        <v>165.4420311779941</v>
+        <v>165.4420311779936</v>
       </c>
       <c r="L7" t="n">
-        <v>389.3059936565146</v>
+        <v>389.3059936565138</v>
       </c>
       <c r="M7" t="n">
-        <v>635.728277140967</v>
+        <v>635.7282771409658</v>
       </c>
       <c r="N7" t="n">
-        <v>881.7258059268976</v>
+        <v>881.7258059268961</v>
       </c>
       <c r="O7" t="n">
-        <v>1092.928044100021</v>
+        <v>1092.928044100019</v>
       </c>
       <c r="P7" t="n">
-        <v>1250.127362942354</v>
+        <v>1250.127362942352</v>
       </c>
       <c r="Q7" t="n">
-        <v>1275.528942871348</v>
+        <v>1275.528942871346</v>
       </c>
       <c r="R7" t="n">
-        <v>1275.528942871348</v>
+        <v>1157.094934449989</v>
       </c>
       <c r="S7" t="n">
-        <v>1275.528942871348</v>
+        <v>1157.094934449989</v>
       </c>
       <c r="T7" t="n">
-        <v>1275.528942871348</v>
+        <v>1157.094934449989</v>
       </c>
       <c r="U7" t="n">
-        <v>1275.528942871348</v>
+        <v>1083.039822750949</v>
       </c>
       <c r="V7" t="n">
-        <v>1275.528942871348</v>
+        <v>828.3553345450622</v>
       </c>
       <c r="W7" t="n">
-        <v>1275.528942871348</v>
+        <v>828.3553345450622</v>
       </c>
       <c r="X7" t="n">
-        <v>1070.596951346023</v>
+        <v>828.3553345450622</v>
       </c>
       <c r="Y7" t="n">
-        <v>849.804372202493</v>
+        <v>828.3553345450622</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1699.061860336089</v>
+        <v>926.0589393552737</v>
       </c>
       <c r="C8" t="n">
-        <v>1330.099343395678</v>
+        <v>926.0589393552737</v>
       </c>
       <c r="D8" t="n">
-        <v>1330.099343395678</v>
+        <v>926.0589393552737</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3110907974335</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078259</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G8" t="n">
         <v>117.6204357321147</v>
@@ -4799,16 +4799,16 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4832,22 +4832,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2373.49557220585</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2373.49557220585</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>2042.432684862279</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400155</v>
+        <v>1689.664029592165</v>
       </c>
       <c r="X8" t="n">
-        <v>2475.801032376023</v>
+        <v>1316.198271331085</v>
       </c>
       <c r="Y8" t="n">
-        <v>2085.661700400211</v>
+        <v>926.0589393552737</v>
       </c>
     </row>
     <row r="9">
@@ -4872,37 +4872,37 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735141</v>
+        <v>614.5430248380231</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049857</v>
+        <v>909.2465818694948</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N9" t="n">
-        <v>1852.283970943244</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>2184.354406119406</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P9" t="n">
-        <v>2431.537139951703</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q9" t="n">
-        <v>2546.853055059249</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>750.7605118677428</v>
+        <v>476.1547555788524</v>
       </c>
       <c r="C10" t="n">
-        <v>750.7605118677428</v>
+        <v>307.2185726509455</v>
       </c>
       <c r="D10" t="n">
-        <v>600.6438724554071</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="E10" t="n">
-        <v>452.7307788730139</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="F10" t="n">
-        <v>305.8408313751036</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H10" t="n">
         <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944676</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="U10" t="n">
-        <v>825.1371474485136</v>
+        <v>1168.012969589583</v>
       </c>
       <c r="V10" t="n">
-        <v>750.7605118677428</v>
+        <v>1168.012969589583</v>
       </c>
       <c r="W10" t="n">
-        <v>750.7605118677428</v>
+        <v>878.5957995526222</v>
       </c>
       <c r="X10" t="n">
-        <v>750.7605118677428</v>
+        <v>878.5957995526222</v>
       </c>
       <c r="Y10" t="n">
-        <v>750.7605118677428</v>
+        <v>657.8032204090921</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1485.490329133576</v>
+        <v>1940.099855499049</v>
       </c>
       <c r="C11" t="n">
-        <v>1138.888713465582</v>
+        <v>1940.099855499049</v>
       </c>
       <c r="D11" t="n">
-        <v>780.623014858832</v>
+        <v>1581.834156892299</v>
       </c>
       <c r="E11" t="n">
-        <v>394.8347622605877</v>
+        <v>1196.045904294055</v>
       </c>
       <c r="F11" t="n">
-        <v>394.8347622605877</v>
+        <v>785.0599995044472</v>
       </c>
       <c r="G11" t="n">
-        <v>394.8347622605877</v>
+        <v>370.4442349455923</v>
       </c>
       <c r="H11" t="n">
-        <v>101.9281932309162</v>
+        <v>77.53766591592078</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592081</v>
+        <v>77.53766591592078</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706885</v>
+        <v>304.4060796706899</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656958</v>
+        <v>695.161540565698</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.83000462533</v>
+        <v>1216.830004625332</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087832</v>
+        <v>1828.956123087834</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484044</v>
+        <v>2455.600890484046</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535298</v>
+        <v>3033.9885135353</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479999</v>
+        <v>3493.127967479998</v>
       </c>
       <c r="Q11" t="n">
         <v>3789.749829464065</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.88329579604</v>
+        <v>3876.883295796039</v>
       </c>
       <c r="S11" t="n">
-        <v>3776.999350345382</v>
+        <v>3776.99935034538</v>
       </c>
       <c r="T11" t="n">
-        <v>3573.020743926746</v>
+        <v>3573.020743926745</v>
       </c>
       <c r="U11" t="n">
         <v>3319.526802048274</v>
       </c>
       <c r="V11" t="n">
-        <v>2988.463914704703</v>
+        <v>3319.526802048274</v>
       </c>
       <c r="W11" t="n">
-        <v>2635.695259434589</v>
+        <v>3090.304785800063</v>
       </c>
       <c r="X11" t="n">
-        <v>2262.229501173509</v>
+        <v>2716.839027538983</v>
       </c>
       <c r="Y11" t="n">
-        <v>1872.090169197697</v>
+        <v>2326.699695563171</v>
       </c>
     </row>
     <row r="12">
@@ -5106,25 +5106,25 @@
         <v>458.9274008453847</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3928428722697</v>
+        <v>312.3928428722696</v>
       </c>
       <c r="G12" t="n">
-        <v>176.274091040601</v>
+        <v>176.2740910406009</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390852</v>
+        <v>88.13208718390851</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592081</v>
+        <v>77.53766591592078</v>
       </c>
       <c r="J12" t="n">
-        <v>77.53766591592081</v>
+        <v>77.53766591592078</v>
       </c>
       <c r="K12" t="n">
-        <v>84.53144813504048</v>
+        <v>84.53144813504093</v>
       </c>
       <c r="L12" t="n">
-        <v>503.2284887929925</v>
+        <v>503.2284887929928</v>
       </c>
       <c r="M12" t="n">
         <v>1011.185054749521</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>655.2536471008065</v>
+        <v>708.7748731129429</v>
       </c>
       <c r="C13" t="n">
-        <v>486.3174641728996</v>
+        <v>539.8386901850361</v>
       </c>
       <c r="D13" t="n">
-        <v>336.2008247605638</v>
+        <v>539.8386901850361</v>
       </c>
       <c r="E13" t="n">
-        <v>336.2008247605638</v>
+        <v>391.9255966026429</v>
       </c>
       <c r="F13" t="n">
-        <v>336.2008247605638</v>
+        <v>245.0356491047326</v>
       </c>
       <c r="G13" t="n">
-        <v>168.7028415717528</v>
+        <v>77.53766591592078</v>
       </c>
       <c r="H13" t="n">
-        <v>168.7028415717528</v>
+        <v>77.53766591592078</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592081</v>
+        <v>77.53766591592078</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758653</v>
+        <v>136.855221875865</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648151</v>
+        <v>364.1690246648147</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344818</v>
+        <v>710.5788654344814</v>
       </c>
       <c r="M13" t="n">
         <v>1086.20859537694</v>
@@ -5212,7 +5212,7 @@
         <v>1458.341306336948</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818666</v>
+        <v>1786.049800818665</v>
       </c>
       <c r="P13" t="n">
         <v>2042.940349010723</v>
@@ -5221,28 +5221,28 @@
         <v>2137.362968742809</v>
       </c>
       <c r="R13" t="n">
-        <v>2056.743466925585</v>
+        <v>2137.362968742809</v>
       </c>
       <c r="S13" t="n">
-        <v>1868.627619458881</v>
+        <v>2137.362968742809</v>
       </c>
       <c r="T13" t="n">
-        <v>1647.736286893321</v>
+        <v>1916.47163617725</v>
       </c>
       <c r="U13" t="n">
-        <v>1358.644593842772</v>
+        <v>1627.3799431267</v>
       </c>
       <c r="V13" t="n">
-        <v>1354.308832866024</v>
+        <v>1372.695454920814</v>
       </c>
       <c r="W13" t="n">
-        <v>1064.891662829064</v>
+        <v>1083.278284883853</v>
       </c>
       <c r="X13" t="n">
-        <v>836.9021119310462</v>
+        <v>855.2887339858355</v>
       </c>
       <c r="Y13" t="n">
-        <v>836.9021119310462</v>
+        <v>855.2887339858355</v>
       </c>
     </row>
     <row r="14">
@@ -5279,19 +5279,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5361,19 +5361,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1802.364528928006</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>950.7540666811328</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C16" t="n">
-        <v>781.8178837532259</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408903</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408903</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429799</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578601</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5452,34 +5452,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V16" t="n">
-        <v>1642.612280691863</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W16" t="n">
-        <v>1353.195110654903</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X16" t="n">
-        <v>1353.195110654903</v>
+        <v>1187.022157454266</v>
       </c>
       <c r="Y16" t="n">
-        <v>1132.402531511372</v>
+        <v>966.2295783107355</v>
       </c>
     </row>
     <row r="17">
@@ -5504,28 +5504,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5592,25 +5592,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>221.3431781811722</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>221.3431781811722</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>716.6687843969308</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>866.4638174991042</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C19" t="n">
-        <v>697.5276345711973</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>408.9258559154851</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5692,31 +5692,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>2040.996070613739</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1786.311582407852</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1496.894412370891</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1268.904861472874</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y19" t="n">
-        <v>1048.112282329344</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5780,7 +5780,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
@@ -5826,25 +5826,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1671.859558793925</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>734.6461798836013</v>
+        <v>801.6918836311991</v>
       </c>
       <c r="C22" t="n">
-        <v>565.7099969556945</v>
+        <v>801.6918836311991</v>
       </c>
       <c r="D22" t="n">
-        <v>415.5933575433587</v>
+        <v>651.5752442188633</v>
       </c>
       <c r="E22" t="n">
-        <v>267.6802639609656</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5929,31 +5929,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614388</v>
       </c>
       <c r="Y22" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614388</v>
       </c>
     </row>
     <row r="23">
@@ -5975,7 +5975,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,16 +5984,16 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192514</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111707</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6008,7 +6008,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273902</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>429.5088224239596</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>1026.887310050512</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1654.485273605118</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>869.6905094135296</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C25" t="n">
-        <v>700.7543264856228</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D25" t="n">
-        <v>550.637687073287</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570815</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.0893932798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853359</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580258</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832661</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487565</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510506</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854704</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V25" t="n">
-        <v>1568.745695178747</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W25" t="n">
-        <v>1279.328525141786</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X25" t="n">
-        <v>1051.338974243769</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y25" t="n">
-        <v>1051.338974243769</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="26">
@@ -6206,37 +6206,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111725</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L27" t="n">
-        <v>245.2306927803937</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>842.6091804069456</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1470.207143961552</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2445.740023695907</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400704</v>
       </c>
       <c r="C28" t="n">
-        <v>847.6442739835329</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711972</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>549.614540988804</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
         <v>402.7245934908938</v>
@@ -6376,19 +6376,19 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2399.970196900127</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>2217.115362555031</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1997.513897577973</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1708.43867092217</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V28" t="n">
-        <v>1708.43867092217</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W28" t="n">
-        <v>1419.02150088521</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1419.021500885209</v>
+        <v>916.2946447138403</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.228921741679</v>
+        <v>695.5020655703102</v>
       </c>
     </row>
     <row r="29">
@@ -6455,28 +6455,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6488,10 +6488,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6503,7 +6503,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>1074.481071167373</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1702.079034721979</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>695.5020655703104</v>
+        <v>718.5507239167111</v>
       </c>
       <c r="C31" t="n">
-        <v>695.5020655703104</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D31" t="n">
-        <v>545.3854261579746</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E31" t="n">
-        <v>545.3854261579746</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>398.4954786600642</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2402.966038179063</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2220.111203833967</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2000.509738856908</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1711.434512201106</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1456.750023995219</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1167.332853958259</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138405</v>
+        <v>939.3433030602413</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703104</v>
+        <v>718.5507239167111</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6692,7 +6692,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192599</v>
@@ -6701,7 +6701,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6719,31 +6719,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1103.652278938886</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1731.250242493492</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>951.7772127656159</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C34" t="n">
-        <v>782.841029837709</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>632.7243904253733</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1238.024836667326</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y34" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="35">
@@ -6917,37 +6917,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2092.798483612594</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.8686257536382</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257313</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133955</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310024</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797189</v>
+        <v>177.7213185270439</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7099,7 +7099,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1272.415575117241</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="38">
@@ -7163,28 +7163,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111725</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>984.5467179762949</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406112</v>
+        <v>815.6105350483881</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282754</v>
+        <v>665.4938956360522</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>517.5808020536591</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>370.6908545557487</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>1166.195182806535</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>175.8744207939072</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>671.2000270096659</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7570,10 +7570,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7585,34 +7585,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>990.5373202159259</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7646,19 +7646,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7667,16 +7667,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466573</v>
@@ -7688,7 +7688,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>634.5603720565526</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1231.938859683105</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>705.9324428257313</v>
+        <v>707.6725264685181</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257313</v>
+        <v>538.7363435406112</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133955</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7807,10 +7807,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7831,25 +7831,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U46" t="n">
-        <v>1880.464695940366</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V46" t="n">
-        <v>1625.780207734479</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W46" t="n">
-        <v>1336.363037697518</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X46" t="n">
-        <v>1108.373486799501</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y46" t="n">
-        <v>887.580907655971</v>
+        <v>889.3209912987578</v>
       </c>
     </row>
   </sheetData>
@@ -8061,13 +8061,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>27.64005315446187</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>39.14457273477274</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>66.78462588923442</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8143,7 +8143,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>121.4700595717822</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
         <v>171.8177168444618</v>
@@ -8152,10 +8152,10 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>74.51411407702454</v>
       </c>
       <c r="Q4" t="n">
-        <v>61.89011047839809</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>28.58095358104291</v>
+        <v>28.58095358104319</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8304,13 +8304,13 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>20.89940739431898</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>20.89940739431876</v>
       </c>
       <c r="P6" t="n">
-        <v>240.4492923270687</v>
+        <v>240.4492923270681</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3273467878355</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,7 +8541,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>36.58048154589929</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>22.13729225969399</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4696069132659</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>24.14662204184546</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,10 +23315,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>122.3111726316843</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>34.78325791777365</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>90.25352389927372</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.81330679905234</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>186.2346889920368</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>247.8452399568478</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23659,13 +23659,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>206.8218058926141</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>86.99395161137537</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462233</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>131.6786642641541</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>145.6085800303782</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,22 +24127,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>45.49286644881062</v>
       </c>
       <c r="F22" t="n">
-        <v>138.8202214113363</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>149.7636788678794</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>133.6938862346308</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,16 +24601,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>57.22910392194306</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>19.8522888967897</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,13 +24658,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,10 +24838,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,7 +24850,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>4.186823682521293</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>22.81817176293609</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25075,13 +25075,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>115.0314858713393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194259</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>4.845153664064981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>125.5054897610406</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25561,10 +25561,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>31.71340154579343</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25597,7 +25597,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25783,25 +25783,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>65.31997266427226</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26035,7 +26035,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>123.7828069546813</v>
+        <v>125.505489761041</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>982879.6279638218</v>
+        <v>982879.6279638215</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1081668.123889504</v>
+        <v>1081668.123889505</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1081668.123889504</v>
+        <v>1081668.123889505</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1081668.123889505</v>
+        <v>1081668.123889504</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1081668.123889505</v>
+        <v>1081668.123889504</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1081668.123889505</v>
+        <v>1081668.123889504</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1081668.123889504</v>
+        <v>1081668.123889505</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1081668.123889505</v>
+        <v>1081668.123889504</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>348942.7521923205</v>
+        <v>348942.7521923203</v>
       </c>
       <c r="C2" t="n">
-        <v>348942.7521923208</v>
+        <v>348942.7521923206</v>
       </c>
       <c r="D2" t="n">
-        <v>348942.7521923202</v>
+        <v>348942.7521923204</v>
       </c>
       <c r="E2" t="n">
         <v>311350.4288166186</v>
@@ -26326,34 +26326,34 @@
         <v>343037.3048682527</v>
       </c>
       <c r="G2" t="n">
-        <v>343037.3048682527</v>
+        <v>343037.3048682528</v>
       </c>
       <c r="H2" t="n">
         <v>343037.3048682527</v>
       </c>
       <c r="I2" t="n">
-        <v>343037.3048682529</v>
+        <v>343037.3048682528</v>
       </c>
       <c r="J2" t="n">
         <v>343037.3048682527</v>
       </c>
       <c r="K2" t="n">
-        <v>343037.3048682527</v>
+        <v>343037.3048682525</v>
       </c>
       <c r="L2" t="n">
         <v>343037.3048682527</v>
       </c>
       <c r="M2" t="n">
-        <v>343037.3048682527</v>
+        <v>343037.3048682526</v>
       </c>
       <c r="N2" t="n">
-        <v>343037.3048682528</v>
+        <v>343037.3048682526</v>
       </c>
       <c r="O2" t="n">
-        <v>343037.3048682527</v>
+        <v>343037.3048682526</v>
       </c>
       <c r="P2" t="n">
-        <v>343037.3048682528</v>
+        <v>343037.3048682526</v>
       </c>
     </row>
     <row r="3">
@@ -26366,16 +26366,16 @@
         <v>652246.4444800889</v>
       </c>
       <c r="C3" t="n">
-        <v>189098.6751706884</v>
+        <v>189098.675170687</v>
       </c>
       <c r="D3" t="n">
-        <v>237173.5150517676</v>
+        <v>237173.515051769</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.1573545784</v>
+        <v>313577.1573545781</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704279</v>
+        <v>189308.2687704282</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>62744.31078353588</v>
       </c>
       <c r="K3" t="n">
-        <v>43966.08035203387</v>
+        <v>43966.0803520336</v>
       </c>
       <c r="L3" t="n">
-        <v>58197.580315722</v>
+        <v>58197.58031572233</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273112</v>
+        <v>81897.40371273094</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202338</v>
+        <v>49839.57413202347</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,10 +26418,10 @@
         <v>261062.8075060264</v>
       </c>
       <c r="C4" t="n">
-        <v>210476.9869351601</v>
+        <v>210476.9869351604</v>
       </c>
       <c r="D4" t="n">
-        <v>143951.0939828189</v>
+        <v>143951.0939828188</v>
       </c>
       <c r="E4" t="n">
         <v>12891.4455871839</v>
@@ -26433,31 +26433,31 @@
         <v>12996.86414683044</v>
       </c>
       <c r="H4" t="n">
+        <v>12996.86414683045</v>
+      </c>
+      <c r="I4" t="n">
         <v>12996.86414683048</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
+        <v>12996.86414683044</v>
+      </c>
+      <c r="K4" t="n">
+        <v>12996.86414683044</v>
+      </c>
+      <c r="L4" t="n">
+        <v>12996.86414683044</v>
+      </c>
+      <c r="M4" t="n">
+        <v>12996.86414683044</v>
+      </c>
+      <c r="N4" t="n">
         <v>12996.86414683045</v>
       </c>
-      <c r="J4" t="n">
-        <v>12996.86414683046</v>
-      </c>
-      <c r="K4" t="n">
-        <v>12996.86414683047</v>
-      </c>
-      <c r="L4" t="n">
-        <v>12996.86414683048</v>
-      </c>
-      <c r="M4" t="n">
-        <v>12996.86414683046</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>12996.86414683044</v>
       </c>
-      <c r="O4" t="n">
-        <v>12996.86414683045</v>
-      </c>
       <c r="P4" t="n">
-        <v>12996.86414683046</v>
+        <v>12996.86414683042</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>61145.70223437328</v>
       </c>
       <c r="C5" t="n">
-        <v>74737.94401911835</v>
+        <v>74737.94401911827</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738574</v>
+        <v>85137.48506738573</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-625512.2020281681</v>
+        <v>-625512.2020281684</v>
       </c>
       <c r="C6" t="n">
-        <v>-125370.8539326461</v>
+        <v>-125370.8539326451</v>
       </c>
       <c r="D6" t="n">
-        <v>-125119.629282111</v>
+        <v>-125119.6292821121</v>
       </c>
       <c r="E6" t="n">
-        <v>-100255.6591925294</v>
+        <v>-100476.7905065039</v>
       </c>
       <c r="F6" t="n">
-        <v>39609.64212708721</v>
+        <v>39574.90420165128</v>
       </c>
       <c r="G6" t="n">
-        <v>228917.9108975151</v>
+        <v>228883.1729720795</v>
       </c>
       <c r="H6" t="n">
-        <v>228917.9108975151</v>
+        <v>228883.1729720794</v>
       </c>
       <c r="I6" t="n">
-        <v>228917.9108975153</v>
+        <v>228883.1729720795</v>
       </c>
       <c r="J6" t="n">
-        <v>166173.6001139792</v>
+        <v>166138.8621885435</v>
       </c>
       <c r="K6" t="n">
-        <v>184951.8305454813</v>
+        <v>184917.0926200456</v>
       </c>
       <c r="L6" t="n">
-        <v>170720.3305817932</v>
+        <v>170685.5926563571</v>
       </c>
       <c r="M6" t="n">
-        <v>147020.507184784</v>
+        <v>146985.7692593484</v>
       </c>
       <c r="N6" t="n">
-        <v>179078.3367654919</v>
+        <v>179043.5988400558</v>
       </c>
       <c r="O6" t="n">
-        <v>228917.9108975151</v>
+        <v>228883.1729720793</v>
       </c>
       <c r="P6" t="n">
-        <v>228917.9108975152</v>
+        <v>228883.1729720794</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>593.4761003380646</v>
       </c>
       <c r="C3" t="n">
-        <v>740.5311575902881</v>
+        <v>740.531157590287</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26790,13 +26790,13 @@
         <v>239.8079481415045</v>
       </c>
       <c r="C4" t="n">
-        <v>410.6375786784552</v>
+        <v>410.637578678454</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490101</v>
+        <v>969.2208239490097</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26960,16 +26960,16 @@
         <v>593.4761003380646</v>
       </c>
       <c r="C3" t="n">
-        <v>147.0550572522235</v>
+        <v>147.0550572522224</v>
       </c>
       <c r="D3" t="n">
-        <v>193.533734527251</v>
+        <v>193.5337345272521</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974122</v>
+        <v>268.176345097412</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267225</v>
+        <v>165.7342631267227</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>239.8079481415045</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8296305369507</v>
+        <v>170.8296305369495</v>
       </c>
       <c r="D4" t="n">
-        <v>229.9472534215835</v>
+        <v>229.9472534215848</v>
       </c>
       <c r="E4" t="n">
-        <v>328.6359918489713</v>
+        <v>328.6359918489709</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506383</v>
+        <v>203.4874641506386</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27036,16 +27036,16 @@
         <v>239.8079481415048</v>
       </c>
       <c r="K4" t="n">
-        <v>170.8296305369505</v>
+        <v>170.8296305369495</v>
       </c>
       <c r="L4" t="n">
-        <v>229.9472534215835</v>
+        <v>229.9472534215848</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489716</v>
+        <v>328.6359918489709</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506383</v>
+        <v>203.4874641506386</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>239.8079481415045</v>
       </c>
       <c r="K4" t="n">
-        <v>170.8296305369507</v>
+        <v>170.8296305369495</v>
       </c>
       <c r="L4" t="n">
-        <v>229.9472534215835</v>
+        <v>229.9472534215848</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489713</v>
+        <v>328.6359918489709</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506383</v>
+        <v>203.4874641506386</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>290.0070418343337</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>125.464943629503</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>167.0680976002069</v>
       </c>
       <c r="G2" t="n">
         <v>173.1089558044323</v>
       </c>
       <c r="H2" t="n">
-        <v>265.3469762220302</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I2" t="n">
-        <v>118.4960408938904</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T2" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U2" t="n">
-        <v>11.34683808079615</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>146.4299905145491</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27467,16 +27467,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>52.51561784728223</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.90681807664346</v>
       </c>
       <c r="I3" t="n">
-        <v>45.4458084395867</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,19 +27506,19 @@
         <v>20.90078060183515</v>
       </c>
       <c r="S3" t="n">
-        <v>147.9721212459916</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8573996139459</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>129.9113021787053</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27540,10 +27540,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>109.468881716518</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T4" t="n">
-        <v>39.22761930227628</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.260654658097</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>46.71505019508652</v>
+        <v>46.71505019508646</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,19 +27622,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>61.01333781488881</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>1.68814915792611</v>
       </c>
       <c r="H5" t="n">
-        <v>308.9865017432182</v>
+        <v>308.9865017432183</v>
       </c>
       <c r="I5" t="n">
-        <v>95.70472393020657</v>
+        <v>95.70472393020674</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>141.1814615316174</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>210.0639896953817</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1074921335361</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>164.6508000916949</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27695,7 +27695,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>147.5996516578211</v>
+        <v>114.3832754237303</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27710,7 +27710,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.85195735900764</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27743,10 +27743,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>142.096855515207</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.7444632813738</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27758,7 +27758,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27783,16 +27783,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6555953037877</v>
       </c>
       <c r="H7" t="n">
         <v>150.35439427591</v>
       </c>
       <c r="I7" t="n">
-        <v>115.2918344467882</v>
+        <v>115.2918344467883</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>117.2496683371438</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>200.7444959205693</v>
@@ -27828,19 +27828,19 @@
         <v>222.2398575583235</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2461902262361</v>
+        <v>212.9316296441867</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>22.82698377896523</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27865,7 +27865,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
@@ -27904,19 +27904,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>19.70286634787126</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>284.0581876145786</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>43.22703113834746</v>
       </c>
       <c r="V10" t="n">
-        <v>178.5047740988649</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28737,7 +28737,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>5.968558980384842e-13</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>9.566747394273988e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29086,7 +29086,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>9.426059932593489e-13</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29226,7 +29226,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>-7.333857380491616e-13</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29755,7 +29755,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30745,7 +30745,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>-3.268496584496461e-13</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -30760,7 +30760,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.977009678754925</v>
+        <v>2.97700967875492</v>
       </c>
       <c r="H5" t="n">
-        <v>30.48830037254888</v>
+        <v>30.48830037254884</v>
       </c>
       <c r="I5" t="n">
-        <v>114.7711656401993</v>
+        <v>114.7711656401992</v>
       </c>
       <c r="J5" t="n">
-        <v>252.669975222226</v>
+        <v>252.6699752222256</v>
       </c>
       <c r="K5" t="n">
-        <v>378.6867949239221</v>
+        <v>378.6867949239215</v>
       </c>
       <c r="L5" t="n">
-        <v>469.7944548801182</v>
+        <v>469.7944548801175</v>
       </c>
       <c r="M5" t="n">
-        <v>522.7368507546761</v>
+        <v>522.7368507546753</v>
       </c>
       <c r="N5" t="n">
-        <v>531.1952795044385</v>
+        <v>531.1952795044377</v>
       </c>
       <c r="O5" t="n">
-        <v>501.5926395113192</v>
+        <v>501.5926395113185</v>
       </c>
       <c r="P5" t="n">
-        <v>428.0977130670569</v>
+        <v>428.0977130670563</v>
       </c>
       <c r="Q5" t="n">
-        <v>321.4835539466461</v>
+        <v>321.4835539466456</v>
       </c>
       <c r="R5" t="n">
-        <v>187.0045842330892</v>
+        <v>187.0045842330889</v>
       </c>
       <c r="S5" t="n">
-        <v>67.83860805462791</v>
+        <v>67.83860805462781</v>
       </c>
       <c r="T5" t="n">
-        <v>13.03185986874969</v>
+        <v>13.03185986874967</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2381607743003939</v>
+        <v>0.2381607743003936</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.592840603118733</v>
+        <v>1.592840603118731</v>
       </c>
       <c r="H6" t="n">
-        <v>15.38348687748882</v>
+        <v>15.38348687748879</v>
       </c>
       <c r="I6" t="n">
-        <v>54.84122251965814</v>
+        <v>54.84122251965805</v>
       </c>
       <c r="J6" t="n">
-        <v>150.4885062797396</v>
+        <v>150.4885062797394</v>
       </c>
       <c r="K6" t="n">
-        <v>257.2088266886947</v>
+        <v>257.2088266886943</v>
       </c>
       <c r="L6" t="n">
-        <v>345.849009023653</v>
+        <v>345.8490090236525</v>
       </c>
       <c r="M6" t="n">
-        <v>403.589480886707</v>
+        <v>403.5894808867063</v>
       </c>
       <c r="N6" t="n">
-        <v>414.2712935277971</v>
+        <v>414.2712935277965</v>
       </c>
       <c r="O6" t="n">
-        <v>378.9772991113242</v>
+        <v>378.9772991113235</v>
       </c>
       <c r="P6" t="n">
-        <v>304.1626937657167</v>
+        <v>304.1626937657162</v>
       </c>
       <c r="Q6" t="n">
-        <v>203.3247057595071</v>
+        <v>203.3247057595067</v>
       </c>
       <c r="R6" t="n">
-        <v>98.89584025328418</v>
+        <v>98.89584025328402</v>
       </c>
       <c r="S6" t="n">
-        <v>29.58631558863083</v>
+        <v>29.58631558863079</v>
       </c>
       <c r="T6" t="n">
-        <v>6.420265413447873</v>
+        <v>6.420265413447863</v>
       </c>
       <c r="U6" t="n">
-        <v>0.104792144942022</v>
+        <v>0.1047921449420218</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.335384054671011</v>
+        <v>1.335384054671009</v>
       </c>
       <c r="H7" t="n">
-        <v>11.87277823152954</v>
+        <v>11.87277823152953</v>
       </c>
       <c r="I7" t="n">
-        <v>40.15864048047005</v>
+        <v>40.15864048047</v>
       </c>
       <c r="J7" t="n">
-        <v>94.41165266524048</v>
+        <v>94.41165266524034</v>
       </c>
       <c r="K7" t="n">
-        <v>155.1473474426865</v>
+        <v>155.1473474426863</v>
       </c>
       <c r="L7" t="n">
-        <v>198.535189364452</v>
+        <v>198.5351893644517</v>
       </c>
       <c r="M7" t="n">
-        <v>209.3275204972022</v>
+        <v>209.3275204972019</v>
       </c>
       <c r="N7" t="n">
-        <v>204.3501799297922</v>
+        <v>204.3501799297919</v>
       </c>
       <c r="O7" t="n">
-        <v>188.7504662002263</v>
+        <v>188.750466200226</v>
       </c>
       <c r="P7" t="n">
-        <v>161.5086314849375</v>
+        <v>161.5086314849373</v>
       </c>
       <c r="Q7" t="n">
-        <v>111.8202047961335</v>
+        <v>111.8202047961333</v>
       </c>
       <c r="R7" t="n">
-        <v>60.04372304002563</v>
+        <v>60.04372304002554</v>
       </c>
       <c r="S7" t="n">
-        <v>23.27210211640298</v>
+        <v>23.27210211640294</v>
       </c>
       <c r="T7" t="n">
-        <v>5.705731869957956</v>
+        <v>5.705731869957947</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07283913025478252</v>
+        <v>0.07283913025478241</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869147</v>
+        <v>4.833130601869146</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639242</v>
+        <v>49.49729877639241</v>
       </c>
       <c r="I11" t="n">
         <v>186.3292675285605</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203919</v>
+        <v>410.2059184203918</v>
       </c>
       <c r="K11" t="n">
-        <v>614.792336797513</v>
+        <v>614.7923367975129</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544661</v>
+        <v>762.704257454466</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954566</v>
+        <v>848.6554437954563</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180174</v>
+        <v>862.3875761180171</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956809</v>
+        <v>814.3281336956808</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620362</v>
+        <v>695.0102219620361</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825973</v>
+        <v>521.9237322825971</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696631</v>
+        <v>303.599140169663</v>
       </c>
       <c r="S11" t="n">
         <v>110.1349635900933</v>
@@ -31792,7 +31792,7 @@
         <v>21.1570292096822</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495317</v>
+        <v>0.3866504481495316</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,25 +31835,25 @@
         <v>24.97486041837097</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469216</v>
+        <v>89.03390294469214</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>144.9058654583183</v>
+        <v>144.9058654583187</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747752</v>
+        <v>561.4806834747751</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821484</v>
+        <v>655.2214742821483</v>
       </c>
       <c r="N12" t="n">
-        <v>672.563237034051</v>
+        <v>672.5632370340509</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924478</v>
+        <v>615.2639659924477</v>
       </c>
       <c r="P12" t="n">
         <v>493.8035753383448</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627656</v>
+        <v>48.03293999627655</v>
       </c>
       <c r="T12" t="n">
         <v>10.42320468868434</v>
       </c>
       <c r="U12" t="n">
-        <v>0.17012847696438</v>
+        <v>0.1701284769643799</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535158</v>
+        <v>2.167976001535157</v>
       </c>
       <c r="H13" t="n">
         <v>19.27527754092169</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798458</v>
+        <v>65.19695102798457</v>
       </c>
       <c r="J13" t="n">
         <v>153.2759033085356</v>
@@ -31926,13 +31926,13 @@
         <v>322.3189048100543</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770066</v>
+        <v>339.8400926770065</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531031</v>
+        <v>331.759454853103</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806241</v>
+        <v>306.433553380624</v>
       </c>
       <c r="P13" t="n">
         <v>262.2068429493066</v>
@@ -31941,13 +31941,13 @@
         <v>181.5384268194576</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811716</v>
+        <v>97.48008457811714</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493542</v>
+        <v>37.78190904493541</v>
       </c>
       <c r="T13" t="n">
-        <v>9.26317018837749</v>
+        <v>9.263170188377488</v>
       </c>
       <c r="U13" t="n">
         <v>0.1182532364473724</v>
@@ -32081,7 +32081,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,13 +32090,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>340.7767527663067</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32312,16 +32312,16 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>255.6522884173741</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32330,10 +32330,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32555,19 +32555,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>604.7968300725072</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32783,16 +32783,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>349.7190218511039</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,16 +33020,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33041,13 +33041,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>211.3773391483997</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>301.6445156724565</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33506,22 +33506,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>171.5999003578897</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>556.532545233504</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,10 +33968,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33980,13 +33980,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>595.3857163736981</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34205,13 +34205,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>218.9428233593773</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34223,13 +34223,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34442,16 +34442,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>345.6771571865338</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34781,13 +34781,13 @@
         <v>68.2907269326837</v>
       </c>
       <c r="L3" t="n">
-        <v>138.6157555714078</v>
+        <v>166.2558087258697</v>
       </c>
       <c r="M3" t="n">
         <v>181.3104407622268</v>
       </c>
       <c r="N3" t="n">
-        <v>200.6633754067318</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="O3" t="n">
         <v>161.123548150263</v>
@@ -34796,7 +34796,7 @@
         <v>109.7875025528269</v>
       </c>
       <c r="Q3" t="n">
-        <v>89.7512331639585</v>
+        <v>22.96660727472408</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34863,7 +34863,7 @@
         <v>186.6999948493114</v>
       </c>
       <c r="M4" t="n">
-        <v>150.3034296918697</v>
+        <v>207.3430310295331</v>
       </c>
       <c r="N4" t="n">
         <v>207.9023887233376</v>
@@ -34872,10 +34872,10 @@
         <v>175.8534296854533</v>
       </c>
       <c r="P4" t="n">
-        <v>126.7147238369854</v>
+        <v>66.22227459996887</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.452847899353372</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>71.62407069553973</v>
+        <v>71.62407069553936</v>
       </c>
       <c r="K5" t="n">
-        <v>158.5969438789415</v>
+        <v>158.5969438789409</v>
       </c>
       <c r="L5" t="n">
-        <v>234.028039910131</v>
+        <v>234.0280399101302</v>
       </c>
       <c r="M5" t="n">
-        <v>292.3906175274034</v>
+        <v>292.3906175274026</v>
       </c>
       <c r="N5" t="n">
-        <v>301.7822159078476</v>
+        <v>301.7822159078468</v>
       </c>
       <c r="O5" t="n">
-        <v>271.4944280896325</v>
+        <v>271.4944280896317</v>
       </c>
       <c r="P5" t="n">
-        <v>196.8647173117874</v>
+        <v>196.8647173117868</v>
       </c>
       <c r="Q5" t="n">
-        <v>99.17786407219663</v>
+        <v>99.17786407219612</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>23.65087961307293</v>
+        <v>23.65087961307268</v>
       </c>
       <c r="K6" t="n">
-        <v>119.3673877143357</v>
+        <v>119.3673877143353</v>
       </c>
       <c r="L6" t="n">
-        <v>207.2946292437788</v>
+        <v>207.2946292437783</v>
       </c>
       <c r="M6" t="n">
-        <v>261.4554469646886</v>
+        <v>261.455446964688</v>
       </c>
       <c r="N6" t="n">
-        <v>303.8289888387828</v>
+        <v>282.9295814444632</v>
       </c>
       <c r="O6" t="n">
-        <v>236.3810546668797</v>
+        <v>257.2804620611979</v>
       </c>
       <c r="P6" t="n">
-        <v>410.6375786784552</v>
+        <v>410.637578678454</v>
       </c>
       <c r="Q6" t="n">
-        <v>63.34293167348554</v>
+        <v>63.34293167348523</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.052472548567707</v>
+        <v>1.052472548567565</v>
       </c>
       <c r="K7" t="n">
-        <v>132.8778556168037</v>
+        <v>132.8778556168035</v>
       </c>
       <c r="L7" t="n">
-        <v>226.1252146247681</v>
+        <v>226.1252146247678</v>
       </c>
       <c r="M7" t="n">
-        <v>248.9113974590428</v>
+        <v>248.9113974590425</v>
       </c>
       <c r="N7" t="n">
-        <v>248.4823523090208</v>
+        <v>248.4823523090205</v>
       </c>
       <c r="O7" t="n">
-        <v>213.3355941142659</v>
+        <v>213.3355941142657</v>
       </c>
       <c r="P7" t="n">
-        <v>158.787190749831</v>
+        <v>158.7871907498308</v>
       </c>
       <c r="Q7" t="n">
-        <v>25.65816154443911</v>
+        <v>25.65816154443894</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313203</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
@@ -35261,7 +35261,7 @@
         <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>640.5848321000387</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
         <v>335.424681996123</v>
@@ -35270,10 +35270,10 @@
         <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
-        <v>15.64270034434938</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937056</v>
+        <v>229.1600138937055</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525325</v>
+        <v>394.7024857525324</v>
       </c>
       <c r="L11" t="n">
         <v>526.9378424844788</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681839</v>
+        <v>618.3092105681836</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214265</v>
+        <v>632.9745125214263</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739941</v>
+        <v>584.229922273994</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067667</v>
+        <v>463.7772262067666</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081477</v>
+        <v>299.6180424081476</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553096</v>
+        <v>88.01360235553091</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>7.064426483959259</v>
+        <v>7.064426483959747</v>
       </c>
       <c r="L12" t="n">
-        <v>422.926303694901</v>
+        <v>422.9263036949009</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601301</v>
+        <v>513.0874403601299</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507177</v>
+        <v>541.2215249507176</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480033</v>
+        <v>472.6677215480032</v>
       </c>
       <c r="P12" t="n">
-        <v>359.8291679240146</v>
+        <v>359.8291679240145</v>
       </c>
       <c r="Q12" t="n">
         <v>190.1128388187327</v>
@@ -35565,16 +35565,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186287</v>
+        <v>59.91672319186284</v>
       </c>
       <c r="K13" t="n">
-        <v>229.60990180702</v>
+        <v>229.6099018070199</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703705</v>
+        <v>349.9089300703704</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388472</v>
+        <v>379.4239696388471</v>
       </c>
       <c r="N13" t="n">
         <v>375.8916272323316</v>
@@ -35586,7 +35586,7 @@
         <v>259.4854022142001</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776326</v>
+        <v>95.37638356776323</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35729,7 +35729,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,13 +35738,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>128.8146617507074</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35978,10 +35978,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,19 +36203,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>462.2005856280628</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36431,16 +36431,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>207.1227774066595</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36522,7 +36522,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010431</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
@@ -36668,16 +36668,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36689,13 +36689,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>71.39556506237817</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>159.048271228012</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37154,22 +37154,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>29.46586643587134</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>425.1908331501707</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37628,13 +37628,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>453.2516824516798</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>81.10138438501833</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37871,13 +37871,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38090,16 +38090,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>207.1227774066596</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
